--- a/BOM_nextPCB(serviA2).xlsx
+++ b/BOM_nextPCB(serviA2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1112" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3A49DC99-2F7C-4958-8A0D-8B84D6AF8BD5}"/>
+  <xr:revisionPtr revIDLastSave="1201" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A094636E-5A11-4E4B-A77D-36CB4DD034A1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="194">
   <si>
     <t>Item</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>2k</t>
-  </si>
-  <si>
-    <t>TVS1-TVS3</t>
   </si>
   <si>
     <t>TVS</t>
@@ -109,9 +106,6 @@
     <t>TO-92</t>
   </si>
   <si>
-    <t>SOT23-3L</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
     <t>https://www.tme.eu/fr/katalog/condensateurs-au-tantale-smd_113245/?page=1&amp;products_with_stock=1&amp;visible_params=2%2C115%2C111%2C10%2C118%2C120%2C39%2C35%2C2931%2C2932%2C32%2C124%2C2650%2C2260%2C2390%2C130%2C119%2C245%2C436%2C42%2C328&amp;mapped_params=118%3A1437928%2C1437202%2C1437928%3B2931%3A1620232%3B</t>
   </si>
   <si>
-    <t>https://www.mouser.be/ProductDetail/Wurth-Elektronik/824022/?qs=Wn16VcyqZWoE6sTDUBlUiQ%3D%3D</t>
-  </si>
-  <si>
     <t>Joint passe câble</t>
   </si>
   <si>
@@ -391,12 +382,6 @@
     <t>Pas de 2,54mm, pour placer le R-Meter</t>
   </si>
   <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>3,3V</t>
   </si>
   <si>
@@ -404,24 +389,6 @@
   </si>
   <si>
     <t>https://www.tme.eu/be/fr/details/1sma5913bt3g/diodes-zener-smd/on-semiconductor/</t>
-  </si>
-  <si>
-    <t>5V/12pF</t>
-  </si>
-  <si>
-    <t>Z3-Z5</t>
-  </si>
-  <si>
-    <t>STPS1L30A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,26V </t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/be/fr/details/stps1l30a/diodes-schottky-smd/stmicroelectronics/</t>
-  </si>
-  <si>
-    <t>Vs = 0,26V, Shottky</t>
   </si>
   <si>
     <t>FDV304P</t>
@@ -523,9 +490,6 @@
     <t>https://befr.rs-online.com/web/p/surface-mount-fixed-resistors/8280614/</t>
   </si>
   <si>
-    <t>https://befr.rs-online.com/web/p/schottky-diodes-rectifiers/4858061/</t>
-  </si>
-  <si>
     <t>C1206C103JCGACAUTO</t>
   </si>
   <si>
@@ -581,6 +545,79 @@
   </si>
   <si>
     <t>https://befr.rs-online.com/web/p/ethernet-connectors/0437165/</t>
+  </si>
+  <si>
+    <t>TVS1-TVS2</t>
+  </si>
+  <si>
+    <t>6V</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Comchip-Technology/TV02W6V0B-G?qs=2qJf6qQ4IOK5OBXl05q1Zg%3D%3D</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
+  </si>
+  <si>
+    <t>Vwm=6V, Vc=10,3V, bidirectionnel</t>
+  </si>
+  <si>
+    <t>R20-R25</t>
+  </si>
+  <si>
+    <t>Résistance de limitation de courant en cas
+de surtension</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>Commutateur analogique</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Maxim-Integrated/MAX4528CSA+?qs=1THa7WoU59HuGBOB0q03Ng==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX4528CSA+ </t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>2*SPDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>Bornier 2 voies</t>
+  </si>
+  <si>
+    <t>Pas de 2,54 mm</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Phoenix-Contact/1725656?qs=%2Fha2pyFaduisMLVvmyA1Rh0mEWT0DKYxlzilMJiDQbY%3D</t>
+  </si>
+  <si>
+    <t>Z3-Z10</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Yageo/RT1206BRD0733RL?qs=sGAEpiMZZMvdGkrng054t%252BSYh%252B1gqt95ZImaTMtcXyM%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1206BRD0733RL </t>
+  </si>
+  <si>
+    <t>Pullup optocoupleur</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Vishay-Dale/CRCW1206680RFKEAC?qs=sGAEpiMZZMvdGkrng054t0DrEhLhGh8gwGZ2fq9TNPP81w%2F9v6xgGg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW1206680RFKEAC </t>
   </si>
 </sst>
 </file>
@@ -657,7 +694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -740,12 +777,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -811,10 +861,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -835,10 +881,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -912,13 +954,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -976,20 +1011,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1000,7 +1052,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1082,6 +1134,11 @@
         </row>
         <row r="15">
           <cell r="F15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
             <v>23</v>
           </cell>
         </row>
@@ -1090,44 +1147,34 @@
             <v>0</v>
           </cell>
         </row>
-        <row r="18">
-          <cell r="F18">
-            <v>18</v>
+        <row r="19">
+          <cell r="F19">
+            <v>0</v>
           </cell>
         </row>
-        <row r="19">
-          <cell r="F19">
-            <v>5</v>
+        <row r="20">
+          <cell r="F20">
+            <v>18</v>
           </cell>
         </row>
         <row r="21">
           <cell r="F21">
-            <v>10</v>
+            <v>5</v>
           </cell>
         </row>
-        <row r="22">
-          <cell r="F22">
+        <row r="24">
+          <cell r="F24">
             <v>6</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>3</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="27">
           <cell r="F27">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28" t="str">
-            <v>&gt;20</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="29">
@@ -1135,29 +1182,44 @@
             <v>6</v>
           </cell>
         </row>
+        <row r="31">
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="32">
           <cell r="F32">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
             <v>6</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>0</v>
           </cell>
         </row>
         <row r="35">
           <cell r="F35">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="36">
           <cell r="F36">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="F38">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="F39">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="F40">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1429,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C6BB1E-CDC9-41D8-A56D-50F2079A148E}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,17 +1506,17 @@
     <col min="5" max="5" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="55" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="51" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1465,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -1474,19 +1536,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>168</v>
+        <v>10</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1504,30 +1566,30 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8">
         <v>7</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="57" t="str">
+        <v>11</v>
+      </c>
+      <c r="H5" s="53" t="str">
         <f>[1]Feuil1!$F$2</f>
         <v>&gt;20</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -1545,30 +1607,30 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" s="13">
         <v>2</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="58" t="str">
+        <v>11</v>
+      </c>
+      <c r="H6" s="54" t="str">
         <f>[1]Feuil1!$F$3</f>
         <v>&gt;20</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -1582,50 +1644,50 @@
       <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="60">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="B7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="18">
         <v>6</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="59" t="str">
+      <c r="F7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="55" t="str">
         <f>[1]Feuil1!$F$4</f>
         <v>&gt;20</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23" t="s">
-        <v>76</v>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="26" t="s">
-        <v>163</v>
+      <c r="F8" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="27"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -1638,96 +1700,121 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+    <row r="9" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="59">
-        <f>[1]Feuil1!$F$21</f>
-        <v>10</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-    </row>
-    <row r="11" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="54">
+        <f>[1]Feuil1!$F$27</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30">
+        <v>2202982</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="54">
+        <f>[1]Feuil1!$F$37</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="58">
-        <f>[1]Feuil1!$F$25</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="H11" s="54">
+        <f>[1]Feuil1!$F$5</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -1742,35 +1829,31 @@
     </row>
     <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="13">
         <v>1</v>
       </c>
-      <c r="F12" s="32">
-        <v>2202982</v>
+      <c r="F12" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="58">
-        <f>[1]Feuil1!$F$34</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>33</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H12" s="54">
+        <f>[1]Feuil1!$F$35</f>
+        <v>18</v>
+      </c>
+      <c r="I12" s="31"/>
       <c r="J12" s="16" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -1785,33 +1868,35 @@
     </row>
     <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>87</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>100</v>
       </c>
       <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="58">
-        <f>[1]Feuil1!$F$5</f>
-        <v>4</v>
-      </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="16" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="H13" s="54" t="str">
+        <f>[1]Feuil1!$F$6</f>
+        <v>&gt;20</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -1826,31 +1911,33 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14" s="58">
-        <f>[1]Feuil1!$F$32</f>
-        <v>18</v>
-      </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="16" t="s">
-        <v>173</v>
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="56">
+        <f>[1]Feuil1!$F$11</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -1863,296 +1950,302 @@
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>9</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="13" t="s">
+    <row r="15" spans="1:20" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60">
+        <v>10</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="13">
-        <v>100</v>
-      </c>
-      <c r="E15" s="13">
-        <v>3</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="58" t="str">
-        <f>[1]Feuil1!$F$6</f>
-        <v>&gt;20</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="60">
-        <f>[1]Feuil1!$F$11</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-    </row>
-    <row r="17" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="D15" s="33">
+        <v>680</v>
+      </c>
+      <c r="E15" s="33">
+        <v>1</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="35">
-        <v>680</v>
-      </c>
-      <c r="E17" s="35">
-        <v>1</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="61">
+      <c r="H15" s="57">
         <f>[1]Feuil1!$F$12</f>
         <v>0</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-    </row>
-    <row r="18" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="40"/>
+      <c r="I15" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+    </row>
+    <row r="16" spans="1:20" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
+        <v>11</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="18">
+        <v>5</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="55" t="str">
+        <f>[1]Feuil1!$F$8</f>
+        <v>&gt;20</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="F18" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="1:20" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>12</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="19">
-        <v>5</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="59" t="str">
-        <f>[1]Feuil1!$F$8</f>
-        <v>&gt;20</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="26" t="s">
+      <c r="D19" s="13">
         <v>160</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-    </row>
-    <row r="21" spans="1:20" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>13</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="13">
-        <v>160</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="E19" s="13">
         <v>3</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="58" t="str">
+      <c r="F19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="54" t="str">
         <f>[1]Feuil1!$F$9</f>
         <v>&gt;20</v>
       </c>
-      <c r="I21" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
-        <v>14</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="I19" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60">
+        <v>13</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="D20" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="18">
         <v>1</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="59" t="str">
+      <c r="F20" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="55" t="str">
         <f>[1]Feuil1!$F$10</f>
         <v>&gt;20</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="27"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>14</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="13">
+        <v>390</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="54">
+        <f>[1]Feuil1!$F$13</f>
+        <v>9</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="8">
+        <v>33</v>
+      </c>
+      <c r="E23" s="8">
+        <v>6</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="53">
+        <f>[1]Feuil1!$F$15</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="63" t="s">
+        <v>176</v>
+      </c>
       <c r="J23" s="10" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -2165,175 +2258,173 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+    <row r="24" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="55">
+        <f>[1]Feuil1!$F$16</f>
+        <v>23</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+    </row>
+    <row r="26" spans="1:20" s="26" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>17</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="13">
-        <v>390</v>
-      </c>
-      <c r="E24" s="13">
-        <v>1</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="58">
-        <f>[1]Feuil1!$F$13</f>
-        <v>9</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13">
+        <v>2</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19">
-        <v>1</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="59">
-        <f>[1]Feuil1!$F$15</f>
-        <v>23</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-    </row>
-    <row r="27" spans="1:20" s="28" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="54">
+        <f>[1]Feuil1!$F$32</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="E27" s="13">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="F27" s="15">
+        <v>824022</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="58">
-        <f>[1]Feuil1!$F$29</f>
-        <v>6</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>79</v>
+        <v>173</v>
+      </c>
+      <c r="H27" s="54">
+        <f>[1]Feuil1!$F$31</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="64" t="s">
+        <v>174</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
+        <v>172</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>124</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>3</v>
-      </c>
-      <c r="F28" s="15">
-        <v>824022</v>
+        <v>1</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="58" t="str">
-        <f>[1]Feuil1!$F$28</f>
-        <v>&gt;20</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="16" t="s">
-        <v>63</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H28" s="54">
+        <f>[1]Feuil1!$F$38</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="64"/>
+      <c r="J28" s="16"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
@@ -2347,30 +2438,32 @@
     </row>
     <row r="29" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="58">
-        <f>[1]Feuil1!$F$35</f>
+        <v>23</v>
+      </c>
+      <c r="H29" s="54">
+        <f>[1]Feuil1!$F$39</f>
         <v>1</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="16"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="31" t="s">
+        <v>37</v>
+      </c>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
@@ -2384,31 +2477,33 @@
     </row>
     <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="E30" s="13">
         <v>1</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="58">
-        <f>[1]Feuil1!$F$36</f>
-        <v>1</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="33" t="s">
-        <v>39</v>
+        <v>181</v>
+      </c>
+      <c r="H30" s="54">
+        <f>[1]Feuil1!$F$40</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="64"/>
+      <c r="J30" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
@@ -2423,35 +2518,35 @@
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E31" s="13">
         <v>6</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>180</v>
+      <c r="F31" s="30" t="s">
+        <v>168</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="58">
-        <f>[1]Feuil1!$F$33</f>
+        <v>23</v>
+      </c>
+      <c r="H31" s="54">
+        <f>[1]Feuil1!$F$36</f>
         <v>6</v>
       </c>
-      <c r="I31" s="33" t="s">
-        <v>81</v>
+      <c r="I31" s="64" t="s">
+        <v>78</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
@@ -2465,51 +2560,53 @@
       <c r="T31" s="17"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
-        <v>22</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="19">
+      <c r="A32" s="60">
+        <v>23</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="18">
         <v>1</v>
       </c>
-      <c r="F32" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="59">
+      <c r="F32" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="55">
         <v>18</v>
       </c>
-      <c r="I32" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>142</v>
+      <c r="I32" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="48" t="s">
-        <v>152</v>
+      <c r="F33" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="27"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -2522,662 +2619,702 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+    <row r="34" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45">
+        <v>24</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1725656</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="19">
-        <v>2</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="59">
-        <f>[1]Feuil1!$F$27</f>
-        <v>6</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
-        <v>24</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="19">
-        <v>3</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="59">
-        <f>[1]Feuil1!$F$18</f>
-        <v>18</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-    </row>
-    <row r="38" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
-        <v>25</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="13">
-        <v>1</v>
-      </c>
-      <c r="F38" s="15">
-        <v>1840382</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="58">
+      <c r="H34" s="54">
         <f>[1]Feuil1!$F$17</f>
         <v>0</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I34" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60">
+        <v>25</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="18">
+        <v>2</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="55">
+        <f>[1]Feuil1!$F$29</f>
+        <v>6</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="61"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60">
+        <v>26</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="18">
+        <v>8</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="55">
+        <f>[1]Feuil1!$F$20</f>
+        <v>18</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="61"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>27</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15">
+        <v>1840382</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="54">
+        <f>[1]Feuil1!$F$19</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60">
+        <v>28</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="18">
+        <v>2</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="G40" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="55">
+        <f>[1]Feuil1!$F$21</f>
+        <v>5</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
-        <v>26</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19" t="s">
+    </row>
+    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="61"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+    </row>
+    <row r="42" spans="1:20" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="60">
+        <v>29</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="18">
+        <v>2</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="55">
+        <f>[1]Feuil1!$F$24</f>
+        <v>6</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="61"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+    </row>
+    <row r="44" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>30</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="13">
+        <v>2</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="54">
+        <f>[1]Feuil1!$F$25</f>
+        <v>3</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J44" s="16"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45">
         <v>31</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="19">
-        <v>2</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="59">
-        <f>[1]Feuil1!$F$19</f>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="55"/>
+      <c r="I45" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="45">
+        <v>32</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="55"/>
+      <c r="I46" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="45">
+        <v>33</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="55"/>
+      <c r="I47" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="45">
+        <v>34</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18">
+        <v>1</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="45">
+        <v>35</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="18">
+        <v>4</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="55"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="22"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="45">
+        <v>36</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="18">
         <v>5</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="22"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="46">
+        <v>37</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47">
+        <v>1</v>
+      </c>
+      <c r="F51" s="48"/>
+      <c r="G51" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="59"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="22"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="46">
+        <v>38</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47">
+        <v>3</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-    </row>
-    <row r="41" spans="1:20" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
-        <v>27</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="20" t="s">
+      <c r="H52" s="59"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="46">
+        <v>39</v>
+      </c>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47">
+        <v>7</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="59"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="46">
         <v>40</v>
       </c>
-      <c r="E41" s="19">
-        <v>2</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="59">
-        <f>[1]Feuil1!$F$22</f>
-        <v>6</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-    </row>
-    <row r="43" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
-        <v>28</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="13">
-        <v>2</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="58">
-        <f>[1]Feuil1!$F$23</f>
-        <v>3</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49">
-        <v>29</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="19">
-        <v>1</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="59"/>
-      <c r="I44" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J44" s="23" t="s">
+      <c r="B54" s="47"/>
+      <c r="C54" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47">
+        <v>7</v>
+      </c>
+      <c r="F54" s="48"/>
+      <c r="G54" s="47" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="49">
-        <v>30</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="19">
-        <v>1</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="59"/>
-      <c r="I45" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="49">
-        <v>31</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" s="19">
-        <v>1</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="49">
-        <v>32</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19">
-        <v>1</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="23"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="49">
-        <v>33</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="19">
-        <v>4</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="23"/>
-    </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="49">
-        <v>34</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="19">
-        <v>5</v>
-      </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="23"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="50">
-        <v>35</v>
-      </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51">
-        <v>1</v>
-      </c>
-      <c r="F50" s="52"/>
-      <c r="G50" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="63"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="23"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="50">
-        <v>36</v>
-      </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51">
-        <v>3</v>
-      </c>
-      <c r="F51" s="52"/>
-      <c r="G51" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="63"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="23"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="50">
-        <v>37</v>
-      </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51">
-        <v>7</v>
-      </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="63"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="50">
-        <v>38</v>
-      </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51">
-        <v>7</v>
-      </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="63"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="23"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="23"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="22"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="23"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="22"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="23"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F62" s="54"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="22"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="49"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="22"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F63" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J58">
-    <sortCondition ref="B13:B58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J59">
+    <sortCondition ref="B11:B59"/>
   </sortState>
-  <mergeCells count="11">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A10"/>
+  <mergeCells count="10">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:T43">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A5:T44">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$H5&lt;$E5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$H5&gt;=$E5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$H5&lt;$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" tooltip="T491A104K035AT; Condensateur: tantal; 0,1uF; 35VDC; SMD; Boîtier: A; 1206; ±10%" display="https://www.tme.eu/fr/details/t491a104k035at/condensateurs-au-tantale-smd/kemet/" xr:uid="{835F4600-2F36-46A6-91DE-6466BA46D1C6}"/>
     <hyperlink ref="F6" r:id="rId2" tooltip="C1206C105M4RACTU; Condensateur: céramique; MLCC; 1uF; 16VDC; X7R; ±20%; SMD; 1206" display="https://www.tme.eu/be/fr/details/c1206c105m4ractu/condensateurs-mlcc-smd-1206/kemet/" xr:uid="{CB063ED4-9A8C-438E-A8B8-A4B60DCCB51D}"/>
     <hyperlink ref="F7" r:id="rId3" tooltip="C1206C103J1RACTU; Condensateur: céramique; MLCC; 10nF; 100VDC; X7R; ±5%; SMD; 1206" display="https://www.tme.eu/be/fr/details/c1206c103j1ractu/condensateurs-mlcc-smd-1206/kemet/" xr:uid="{5F2390B3-0D81-409B-A42B-E9EA90065D1C}"/>
-    <hyperlink ref="F16" r:id="rId4" display="https://www.mouser.be/ProductDetail/KOA-Speer/RN73H2BTTD1001B25/?qs=Zlm1YJ46fsD3WNngRPTY1g%3D%3D" xr:uid="{0660DEBA-A9C4-4F98-98EF-A884AAFFD700}"/>
-    <hyperlink ref="F19" r:id="rId5" tooltip="AR06BTCV2001; Résistance: thin film; de précision; SMD; 1206; 2kΩ; 0,25W; ±0,1%" display="https://www.tme.eu/fr/details/ar1206-2k-0.1%25/resistances-de-precision-smd-1206/viking/ar06btcv2001/" xr:uid="{4E3DED89-4485-49C5-92A8-62C8A029ECA6}"/>
-    <hyperlink ref="F28" r:id="rId6" display="https://www.mouser.be/ProductDetail/Wurth-Elektronik/824022/?qs=Wn16VcyqZWoE6sTDUBlUiQ%3D%3D" xr:uid="{A71537F9-07AE-4F90-B739-6D16251D122A}"/>
-    <hyperlink ref="J11" r:id="rId7" display="https://befr.rs-online.com/web/p/voltage-references/5343037/?cm_mmc=BE-PLA-DS3A-_-google-_-PLA_BE_FR_Semiconductors_Whoop-_-(BE:Whoop!)+Voltage+References-_-5343037&amp;matchtype=&amp;aud-827186183686:pla-533962920232&amp;gclid=Cj0KCQiAst2BBhDJARIsAGo2ldVAY1WrPDjC8paFXGNZEOmkZQx8TcAHaZFOpla8vljzKIUvydHTWN0aArtkEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B66D013-D586-47EE-8D64-26CA00366A1F}"/>
-    <hyperlink ref="F38" r:id="rId8" tooltip="MC 1,5/ 4-ST-3,5 1840382; Barrette de pression amovible; 3,5mm; pistes: 4; droit; femelle" display="https://www.tme.eu/fr/details/mc1.5_4-st-3.5/borniers-de-serrage-deconnectables/phoenix-contact/mc-1-5-4-st-3-5-1840382/" xr:uid="{CA613C76-B9F0-4233-86C4-BD3E113E3D81}"/>
-    <hyperlink ref="F39" r:id="rId9" tooltip="DS1009-18AT1NX; Support: DIP; PIN: 18; 7,62mm; THT; Trame: 2,54mm" display="https://www.tme.eu/fr/details/icvt-18p/supports-dip-standard/connfly/ds1009-18at1nx/" xr:uid="{95D93535-A405-4289-A585-A00FC5365CAE}"/>
-    <hyperlink ref="F45" r:id="rId10" tooltip="VAQ-9-10-12-R; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-r/commutateurs-standards/highly/" xr:uid="{27067EA1-971F-4DC2-992B-9343F6A6CBB2}"/>
-    <hyperlink ref="F44" r:id="rId11" tooltip="VAQ-9-10-12-G; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-g/commutateurs-standards/highly/" xr:uid="{3D237C8C-FF33-4FBD-9F47-23A5FBAF27E4}"/>
-    <hyperlink ref="F46" r:id="rId12" tooltip="VAQ-9-10-12-Y; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-y/commutateurs-standards/highly/" xr:uid="{CE4B8ED0-965D-4C0E-A322-C5B8602B9323}"/>
-    <hyperlink ref="F34" r:id="rId13" tooltip="SMAZ5V1-13-F; Diode: Zener; 1W; 5,1V; 196mA; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/smaz5v1-13-f/diodes-zener-smd/diodes-incorporated/" xr:uid="{CA0324DD-67DE-4ECD-AB47-263AE86E8EBD}"/>
-    <hyperlink ref="F21" r:id="rId14" display="https://befr.rs-online.com/web/p/surface-mount-fixed-resistors/7218093/" xr:uid="{A69B2073-EAD3-4F64-994A-E2F02F998664}"/>
-    <hyperlink ref="F36" r:id="rId15" tooltip="1SMA5913BT3G; Diode: Zener; 1,5W; 3,3V; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/1sma5913bt3g/diodes-zener-smd/on-semiconductor/" xr:uid="{971C21CD-F9A6-4515-A379-2101CBC403C6}"/>
-    <hyperlink ref="F9" r:id="rId16" tooltip="STPS1L30A; Diode: redressement Schottky; SMD; 30V; 1A; SMA" display="https://www.tme.eu/be/fr/details/stps1l30a/diodes-schottky-smd/stmicroelectronics/" xr:uid="{0E994865-9D5D-477F-B57E-D23C206A31D3}"/>
-    <hyperlink ref="F25" r:id="rId17" tooltip="FDV304P; Transistor: P-MOSFET; unipolaire; -25V; -0,46A; 0,35W; SOT23" display="https://www.tme.eu/fr/details/fdv304p/transistors-avec-canal-p-smd/on-semiconductor/" xr:uid="{03FB83DA-FD42-4597-988E-925E469D5187}"/>
-    <hyperlink ref="F15" r:id="rId18" tooltip="TC0625B1000T1E; Résistance: thin film; de précision; SMD; 1206; 100Ω; 125mW; ±0,1%" display="https://www.tme.eu/fr/details/tc0625b1000t1e/resistances-de-precision-smd-1206/royal-ohm/" xr:uid="{CF3335F1-6ACB-48EC-B5C8-DEC07B13CCD6}"/>
-    <hyperlink ref="J16" r:id="rId19" xr:uid="{C837ABE1-F5AE-415B-B082-FBED6CAECA1D}"/>
-    <hyperlink ref="F22" r:id="rId20" tooltip="AR06BTCV1002; Résistance: thin film; de précision; SMD; 1206; 10kΩ; 0,25W; ±0,1%" display="https://www.tme.eu/fr/details/ar1206-10k-0.1%25/resistances-de-precision-smd-1206/viking/ar06btcv1002/" xr:uid="{B07F7E88-426D-4E0E-8A9F-91BEDFD334CF}"/>
-    <hyperlink ref="F41" r:id="rId21" tooltip="DS1023-1*14S21; Socle; broches; femelle; PIN: 14; droit; 2,54mm; THT; 1x14; doré; 3A" display="https://www.tme.eu/be/fr/details/zl262-14sg/barres-et-socles-a-broches/connfly/ds1023-1-14s21/" xr:uid="{70C4D670-60F6-4666-BABA-E926B65677CA}"/>
-    <hyperlink ref="F33" r:id="rId22" tooltip="15EDGVC-3.5-04P-14-00A(H); Barrette de pression amovible; 3,5mm; pistes: 4; droit; socle" display="https://www.tme.eu/be/fr/details/15edgvc-3.5-04p/borniers-de-serrage-deconnectables/degson-electronics/15edgvc-3-5-04p-14-00a-h/" xr:uid="{D8491FE7-E59C-4796-BDC8-A9F44C1EF11E}"/>
+    <hyperlink ref="F14" r:id="rId4" display="https://www.mouser.be/ProductDetail/KOA-Speer/RN73H2BTTD1001B25/?qs=Zlm1YJ46fsD3WNngRPTY1g%3D%3D" xr:uid="{0660DEBA-A9C4-4F98-98EF-A884AAFFD700}"/>
+    <hyperlink ref="F17" r:id="rId5" tooltip="AR06BTCV2001; Résistance: thin film; de précision; SMD; 1206; 2kΩ; 0,25W; ±0,1%" display="https://www.tme.eu/fr/details/ar1206-2k-0.1%25/resistances-de-precision-smd-1206/viking/ar06btcv2001/" xr:uid="{4E3DED89-4485-49C5-92A8-62C8A029ECA6}"/>
+    <hyperlink ref="F27" r:id="rId6" display="https://www.mouser.be/ProductDetail/Wurth-Elektronik/824022/?qs=Wn16VcyqZWoE6sTDUBlUiQ%3D%3D" xr:uid="{A71537F9-07AE-4F90-B739-6D16251D122A}"/>
+    <hyperlink ref="J9" r:id="rId7" display="https://befr.rs-online.com/web/p/voltage-references/5343037/?cm_mmc=BE-PLA-DS3A-_-google-_-PLA_BE_FR_Semiconductors_Whoop-_-(BE:Whoop!)+Voltage+References-_-5343037&amp;matchtype=&amp;aud-827186183686:pla-533962920232&amp;gclid=Cj0KCQiAst2BBhDJARIsAGo2ldVAY1WrPDjC8paFXGNZEOmkZQx8TcAHaZFOpla8vljzKIUvydHTWN0aArtkEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B66D013-D586-47EE-8D64-26CA00366A1F}"/>
+    <hyperlink ref="F39" r:id="rId8" tooltip="MC 1,5/ 4-ST-3,5 1840382; Barrette de pression amovible; 3,5mm; pistes: 4; droit; femelle" display="https://www.tme.eu/fr/details/mc1.5_4-st-3.5/borniers-de-serrage-deconnectables/phoenix-contact/mc-1-5-4-st-3-5-1840382/" xr:uid="{CA613C76-B9F0-4233-86C4-BD3E113E3D81}"/>
+    <hyperlink ref="F40" r:id="rId9" tooltip="DS1009-18AT1NX; Support: DIP; PIN: 18; 7,62mm; THT; Trame: 2,54mm" display="https://www.tme.eu/fr/details/icvt-18p/supports-dip-standard/connfly/ds1009-18at1nx/" xr:uid="{95D93535-A405-4289-A585-A00FC5365CAE}"/>
+    <hyperlink ref="F46" r:id="rId10" tooltip="VAQ-9-10-12-R; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-r/commutateurs-standards/highly/" xr:uid="{27067EA1-971F-4DC2-992B-9343F6A6CBB2}"/>
+    <hyperlink ref="F45" r:id="rId11" tooltip="VAQ-9-10-12-G; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-g/commutateurs-standards/highly/" xr:uid="{3D237C8C-FF33-4FBD-9F47-23A5FBAF27E4}"/>
+    <hyperlink ref="F47" r:id="rId12" tooltip="VAQ-9-10-12-Y; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-y/commutateurs-standards/highly/" xr:uid="{CE4B8ED0-965D-4C0E-A322-C5B8602B9323}"/>
+    <hyperlink ref="F35" r:id="rId13" tooltip="SMAZ5V1-13-F; Diode: Zener; 1W; 5,1V; 196mA; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/smaz5v1-13-f/diodes-zener-smd/diodes-incorporated/" xr:uid="{CA0324DD-67DE-4ECD-AB47-263AE86E8EBD}"/>
+    <hyperlink ref="F19" r:id="rId14" display="https://befr.rs-online.com/web/p/surface-mount-fixed-resistors/7218093/" xr:uid="{A69B2073-EAD3-4F64-994A-E2F02F998664}"/>
+    <hyperlink ref="F37" r:id="rId15" tooltip="1SMA5913BT3G; Diode: Zener; 1,5W; 3,3V; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/1sma5913bt3g/diodes-zener-smd/on-semiconductor/" xr:uid="{971C21CD-F9A6-4515-A379-2101CBC403C6}"/>
+    <hyperlink ref="F24" r:id="rId16" tooltip="FDV304P; Transistor: P-MOSFET; unipolaire; -25V; -0,46A; 0,35W; SOT23" display="https://www.tme.eu/fr/details/fdv304p/transistors-avec-canal-p-smd/on-semiconductor/" xr:uid="{03FB83DA-FD42-4597-988E-925E469D5187}"/>
+    <hyperlink ref="F13" r:id="rId17" tooltip="TC0625B1000T1E; Résistance: thin film; de précision; SMD; 1206; 100Ω; 125mW; ±0,1%" display="https://www.tme.eu/fr/details/tc0625b1000t1e/resistances-de-precision-smd-1206/royal-ohm/" xr:uid="{CF3335F1-6ACB-48EC-B5C8-DEC07B13CCD6}"/>
+    <hyperlink ref="J14" r:id="rId18" xr:uid="{C837ABE1-F5AE-415B-B082-FBED6CAECA1D}"/>
+    <hyperlink ref="F20" r:id="rId19" tooltip="AR06BTCV1002; Résistance: thin film; de précision; SMD; 1206; 10kΩ; 0,25W; ±0,1%" display="https://www.tme.eu/fr/details/ar1206-10k-0.1%25/resistances-de-precision-smd-1206/viking/ar06btcv1002/" xr:uid="{B07F7E88-426D-4E0E-8A9F-91BEDFD334CF}"/>
+    <hyperlink ref="F42" r:id="rId20" tooltip="DS1023-1*14S21; Socle; broches; femelle; PIN: 14; droit; 2,54mm; THT; 1x14; doré; 3A" display="https://www.tme.eu/be/fr/details/zl262-14sg/barres-et-socles-a-broches/connfly/ds1023-1-14s21/" xr:uid="{70C4D670-60F6-4666-BABA-E926B65677CA}"/>
+    <hyperlink ref="F33" r:id="rId21" tooltip="15EDGVC-3.5-04P-14-00A(H); Barrette de pression amovible; 3,5mm; pistes: 4; droit; socle" display="https://www.tme.eu/be/fr/details/15edgvc-3.5-04p/borniers-de-serrage-deconnectables/degson-electronics/15edgvc-3-5-04p-14-00a-h/" xr:uid="{D8491FE7-E59C-4796-BDC8-A9F44C1EF11E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId22"/>
 </worksheet>
 </file>
--- a/BOM_nextPCB(serviA2).xlsx
+++ b/BOM_nextPCB(serviA2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1201" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A094636E-5A11-4E4B-A77D-36CB4DD034A1}"/>
+  <xr:revisionPtr revIDLastSave="1202" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3935ECE2-1D54-4308-93CC-5F7D8008EE63}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,18 +1012,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1033,6 +1021,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1154,7 +1154,7 @@
         </row>
         <row r="20">
           <cell r="F20">
-            <v>18</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="21">
@@ -1493,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C6BB1E-CDC9-41D8-A56D-50F2079A148E}">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1644,7 @@
       <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
+      <c r="A7" s="63">
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -1675,7 +1675,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="8"/>
       <c r="C8" s="23"/>
       <c r="D8" s="8"/>
@@ -1951,7 +1951,7 @@
       <c r="T14" s="17"/>
     </row>
     <row r="15" spans="1:20" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
+      <c r="A15" s="63">
         <v>10</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -1994,7 +1994,7 @@
       <c r="T15" s="37"/>
     </row>
     <row r="16" spans="1:20" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="38"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2016,7 +2016,7 @@
       <c r="T16" s="27"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
+      <c r="A17" s="63">
         <v>11</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -2049,7 +2049,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2118,7 +2118,7 @@
       <c r="T19" s="17"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60">
+      <c r="A20" s="63">
         <v>13</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -2149,7 +2149,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2241,7 +2241,7 @@
         <f>[1]Feuil1!$F$15</f>
         <v>0</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="60" t="s">
         <v>176</v>
       </c>
       <c r="J23" s="10" t="s">
@@ -2259,7 +2259,7 @@
       <c r="T23" s="11"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62">
+      <c r="A24" s="65">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -2290,7 +2290,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2315,7 +2315,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
     </row>
-    <row r="26" spans="1:20" s="26" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="26" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>17</v>
       </c>
@@ -2339,7 +2339,7 @@
         <f>[1]Feuil1!$F$32</f>
         <v>6</v>
       </c>
-      <c r="I26" s="64" t="s">
+      <c r="I26" s="61" t="s">
         <v>76</v>
       </c>
       <c r="J26" s="16" t="s">
@@ -2382,7 +2382,7 @@
         <f>[1]Feuil1!$F$31</f>
         <v>0</v>
       </c>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="61" t="s">
         <v>174</v>
       </c>
       <c r="J27" s="16" t="s">
@@ -2423,7 +2423,7 @@
         <f>[1]Feuil1!$F$38</f>
         <v>1</v>
       </c>
-      <c r="I28" s="64"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="16"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
@@ -2460,7 +2460,7 @@
         <f>[1]Feuil1!$F$39</f>
         <v>1</v>
       </c>
-      <c r="I29" s="64"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="31" t="s">
         <v>37</v>
       </c>
@@ -2501,7 +2501,7 @@
         <f>[1]Feuil1!$F$40</f>
         <v>0</v>
       </c>
-      <c r="I30" s="64"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="31" t="s">
         <v>179</v>
       </c>
@@ -2542,7 +2542,7 @@
         <f>[1]Feuil1!$F$36</f>
         <v>6</v>
       </c>
-      <c r="I31" s="64" t="s">
+      <c r="I31" s="61" t="s">
         <v>78</v>
       </c>
       <c r="J31" s="16" t="s">
@@ -2560,7 +2560,7 @@
       <c r="T31" s="17"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60">
+      <c r="A32" s="63">
         <v>23</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -2592,7 +2592,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
@@ -2623,7 +2623,7 @@
       <c r="A34" s="45">
         <v>24</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="62" t="s">
         <v>184</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -2663,7 +2663,7 @@
       <c r="T34" s="17"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60">
+      <c r="A35" s="63">
         <v>25</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -2696,7 +2696,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2722,7 +2722,7 @@
       <c r="T36" s="11"/>
     </row>
     <row r="37" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60">
+      <c r="A37" s="63">
         <v>26</v>
       </c>
       <c r="B37" s="18" t="s">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H37" s="55">
         <f>[1]Feuil1!$F$20</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="21" t="s">
         <v>116</v>
@@ -2755,7 +2755,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2822,7 +2822,7 @@
       <c r="T39" s="17"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60">
+      <c r="A40" s="63">
         <v>28</v>
       </c>
       <c r="B40" s="18"/>
@@ -2853,7 +2853,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -2879,7 +2879,7 @@
       <c r="T41" s="11"/>
     </row>
     <row r="42" spans="1:20" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60">
+      <c r="A42" s="63">
         <v>29</v>
       </c>
       <c r="B42" s="18"/>
@@ -2910,7 +2910,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="23"/>

--- a/BOM_nextPCB(serviA2).xlsx
+++ b/BOM_nextPCB(serviA2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1202" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3935ECE2-1D54-4308-93CC-5F7D8008EE63}"/>
+  <xr:revisionPtr revIDLastSave="1205" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A29CB97-55B2-474C-B990-FC3D8A2538DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="201">
   <si>
     <t>Item</t>
   </si>
@@ -602,9 +602,6 @@
     <t>https://www.mouser.be/ProductDetail/Phoenix-Contact/1725656?qs=%2Fha2pyFaduisMLVvmyA1Rh0mEWT0DKYxlzilMJiDQbY%3D</t>
   </si>
   <si>
-    <t>Z3-Z10</t>
-  </si>
-  <si>
     <t>https://www.mouser.be/ProductDetail/Yageo/RT1206BRD0733RL?qs=sGAEpiMZZMvdGkrng054t%252BSYh%252B1gqt95ZImaTMtcXyM%3D</t>
   </si>
   <si>
@@ -618,6 +615,30 @@
   </si>
   <si>
     <t xml:space="preserve">CRCW1206680RFKEAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV02W6V0B-G </t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>DS1-DS4</t>
+  </si>
+  <si>
+    <t>Diode Schottky</t>
+  </si>
+  <si>
+    <t>0,45V</t>
+  </si>
+  <si>
+    <t>SOT-26</t>
+  </si>
+  <si>
+    <t>SDM10M45SD</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Diodes-Incorporated/SDM10M45SD-7-F?qs=%2Fha2pyFadujjRkPixxzQ28uXDzT00Y%252Bd3v2piDiuOZ%252BOgoOZIcgrJQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -795,7 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1021,6 +1042,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1164,52 +1189,52 @@
         </row>
         <row r="24">
           <cell r="F24">
-            <v>6</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
             <v>3</v>
           </cell>
         </row>
-        <row r="27">
-          <cell r="F27">
+        <row r="28">
+          <cell r="F28">
             <v>1</v>
           </cell>
         </row>
-        <row r="29">
-          <cell r="F29">
+        <row r="30">
+          <cell r="F30">
             <v>6</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>0</v>
           </cell>
         </row>
         <row r="32">
           <cell r="F32">
-            <v>6</v>
+            <v>0</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="F35">
-            <v>18</v>
+        <row r="33">
+          <cell r="F33">
+            <v>6</v>
           </cell>
         </row>
         <row r="36">
           <cell r="F36">
-            <v>6</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="37">
           <cell r="F37">
-            <v>0</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="38">
           <cell r="F38">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="39">
@@ -1219,6 +1244,11 @@
         </row>
         <row r="40">
           <cell r="F40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="F41">
             <v>0</v>
           </cell>
         </row>
@@ -1491,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C6BB1E-CDC9-41D8-A56D-50F2079A148E}">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1674,7 @@
       <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63">
+      <c r="A7" s="64">
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -1675,7 +1705,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="8"/>
       <c r="C8" s="23"/>
       <c r="D8" s="8"/>
@@ -1700,80 +1730,78 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+    <row r="9" spans="1:20" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="63">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="8">
+        <v>4</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="53">
+        <f>[1]Feuil1!$F$24</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="54">
-        <f>[1]Feuil1!$F$27</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>5</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
       </c>
-      <c r="F10" s="30">
-        <v>2202982</v>
+      <c r="F10" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="H10" s="54">
-        <f>[1]Feuil1!$F$37</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>97</v>
+        <f>[1]Feuil1!$F$28</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -1788,33 +1816,35 @@
     </row>
     <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>70</v>
+      <c r="F11" s="30">
+        <v>2202982</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="H11" s="54">
-        <f>[1]Feuil1!$F$5</f>
-        <v>4</v>
-      </c>
-      <c r="I11" s="31"/>
+        <f>[1]Feuil1!$F$38</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="J11" s="16" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -1829,31 +1859,33 @@
     </row>
     <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="E12" s="13">
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="H12" s="54">
-        <f>[1]Feuil1!$F$35</f>
-        <v>18</v>
+        <f>[1]Feuil1!$F$5</f>
+        <v>4</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="16" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -1868,35 +1900,31 @@
     </row>
     <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13">
-        <v>100</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>3</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="54" t="str">
-        <f>[1]Feuil1!$F$6</f>
-        <v>&gt;20</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>126</v>
+        <v>160</v>
+      </c>
+      <c r="H13" s="54">
+        <f>[1]Feuil1!$F$36</f>
+        <v>18</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -1911,33 +1939,35 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>4</v>
+      <c r="D14" s="13">
+        <v>100</v>
       </c>
       <c r="E14" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="56">
-        <f>[1]Feuil1!$F$11</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="29" t="s">
-        <v>53</v>
+      <c r="H14" s="54" t="str">
+        <f>[1]Feuil1!$F$6</f>
+        <v>&gt;20</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -1950,481 +1980,485 @@
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:20" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63">
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="56">
+        <f>[1]Feuil1!$F$11</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64">
         <v>10</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B16" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D16" s="33">
         <v>680</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E16" s="33">
         <v>1</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="F16" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H16" s="57">
         <f>[1]Feuil1!$F$12</f>
         <v>0</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I16" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-    </row>
-    <row r="16" spans="1:20" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63">
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+    </row>
+    <row r="17" spans="1:20" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64">
         <v>11</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E18" s="18">
         <v>5</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="55" t="str">
+      <c r="H18" s="55" t="str">
         <f>[1]Feuil1!$F$8</f>
         <v>&gt;20</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I18" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J18" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="24" t="s">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="10" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>12</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>160</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>3</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F20" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="54" t="str">
+      <c r="H20" s="54" t="str">
         <f>[1]Feuil1!$F$9</f>
         <v>&gt;20</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I20" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J20" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63">
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
         <v>13</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B21" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E21" s="18">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="55" t="str">
+      <c r="H21" s="55" t="str">
         <f>[1]Feuil1!$F$10</f>
         <v>&gt;20</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22" t="s">
+      <c r="I21" s="21"/>
+      <c r="J21" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="24" t="s">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="10" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-    </row>
-    <row r="22" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
         <v>14</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>390</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>1</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F23" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H23" s="54">
         <f>[1]Feuil1!$F$13</f>
         <v>9</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="16" t="s">
+      <c r="I23" s="31"/>
+      <c r="J23" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-    </row>
-    <row r="23" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
         <v>15</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <v>33</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>6</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="F24" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H24" s="53">
         <f>[1]Feuil1!$F$15</f>
         <v>0</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I24" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65">
+      <c r="J24" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="66">
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18">
         <v>1</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F25" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H25" s="55">
         <f>[1]Feuil1!$F$16</f>
         <v>23</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I25" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J25" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="24" t="s">
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="10" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-    </row>
-    <row r="26" spans="1:20" s="26" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="1:20" s="26" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>17</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13">
         <v>2</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="54">
-        <f>[1]Feuil1!$F$32</f>
+      <c r="H27" s="54">
+        <f>[1]Feuil1!$F$33</f>
         <v>6</v>
       </c>
-      <c r="I26" s="61" t="s">
+      <c r="I27" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-    </row>
-    <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>18</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="13">
-        <v>3</v>
-      </c>
-      <c r="F27" s="15">
-        <v>824022</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="H27" s="54">
-        <f>[1]Feuil1!$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="E28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>193</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="H28" s="54">
-        <f>[1]Feuil1!$F$38</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="61"/>
-      <c r="J28" s="16"/>
+        <f>[1]Feuil1!$F$32</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
@@ -2438,20 +2472,20 @@
     </row>
     <row r="29" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>23</v>
@@ -2461,9 +2495,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="61"/>
-      <c r="J29" s="31" t="s">
-        <v>37</v>
-      </c>
+      <c r="J29" s="16"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
@@ -2477,33 +2509,31 @@
     </row>
     <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>182</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="13">
         <v>1</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="H30" s="54">
         <f>[1]Feuil1!$F$40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="61"/>
       <c r="J30" s="31" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
@@ -2518,35 +2548,33 @@
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>79</v>
+        <v>178</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="E31" s="13">
-        <v>6</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H31" s="54">
-        <f>[1]Feuil1!$F$36</f>
-        <v>6</v>
-      </c>
-      <c r="I31" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>169</v>
+        <f>[1]Feuil1!$F$41</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="61"/>
+      <c r="J31" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
@@ -2559,463 +2587,478 @@
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63">
+    <row r="32" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>22</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="13">
+        <v>6</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="H32" s="54">
+        <f>[1]Feuil1!$F$37</f>
+        <v>6</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="64">
+        <v>23</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E33" s="18">
         <v>1</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F33" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="55">
+      <c r="H33" s="55">
         <v>18</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I33" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J33" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="65"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="44" t="s">
+      <c r="E34" s="8"/>
+      <c r="F34" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="10" t="s">
+      <c r="G34" s="8"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-    </row>
-    <row r="34" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45">
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+    </row>
+    <row r="35" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45">
         <v>24</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B35" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>1</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="15">
         <v>1725656</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="54">
+      <c r="H35" s="54">
         <f>[1]Feuil1!$F$17</f>
         <v>0</v>
       </c>
-      <c r="I34" s="31" t="s">
+      <c r="I35" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J35" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63">
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="64">
         <v>25</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B36" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E36" s="18">
         <v>2</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F36" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G36" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="55">
-        <f>[1]Feuil1!$F$29</f>
+      <c r="H36" s="55">
+        <f>[1]Feuil1!$F$30</f>
         <v>6</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I36" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J36" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="24" t="s">
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="65"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="10" t="s">
+      <c r="G37" s="8"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63">
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="64">
         <v>26</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="18" t="s">
+      <c r="B38" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="18">
-        <v>8</v>
-      </c>
-      <c r="F37" s="20" t="s">
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G38" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="55">
+      <c r="H38" s="55">
         <f>[1]Feuil1!$F$20</f>
         <v>17</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I38" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="22" t="s">
+      <c r="J38" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="24" t="s">
+    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="65"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="10" t="s">
+      <c r="G39" s="8"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-    </row>
-    <row r="39" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+    </row>
+    <row r="40" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
         <v>27</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>1</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>1840382</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H39" s="54">
+      <c r="H40" s="54">
         <f>[1]Feuil1!$F$19</f>
         <v>0</v>
       </c>
-      <c r="I39" s="31" t="s">
+      <c r="I40" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J40" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63">
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="64">
         <v>28</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E41" s="18">
         <v>2</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F41" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H41" s="55">
         <f>[1]Feuil1!$F$21</f>
         <v>5</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I41" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="J41" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="24" t="s">
+    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="65"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="10" t="s">
+      <c r="G42" s="8"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-    </row>
-    <row r="42" spans="1:20" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63">
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="1:20" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="64">
         <v>29</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D43" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E43" s="18">
         <v>2</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F43" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G43" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="55">
-        <f>[1]Feuil1!$F$24</f>
+      <c r="H43" s="55">
+        <f>[1]Feuil1!$F$25</f>
         <v>6</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I43" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="J43" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="24" t="s">
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="65"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="10" t="s">
+      <c r="G44" s="8"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-    </row>
-    <row r="44" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+    </row>
+    <row r="45" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
         <v>30</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D45" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>2</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="13" t="s">
+      <c r="F45" s="15"/>
+      <c r="G45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="54">
-        <f>[1]Feuil1!$F$25</f>
+      <c r="H45" s="54">
+        <f>[1]Feuil1!$F$26</f>
         <v>3</v>
       </c>
-      <c r="I44" s="31" t="s">
+      <c r="I45" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45">
+      <c r="J45" s="16"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45">
         <v>31</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="18">
-        <v>1</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="55"/>
-      <c r="I45" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="45">
-        <v>32</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E46" s="18">
         <v>1</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>42</v>
@@ -3025,25 +3068,25 @@
         <v>41</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="E47" s="18">
         <v>1</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>42</v>
@@ -3053,108 +3096,116 @@
         <v>41</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="E48" s="18">
         <v>1</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" s="18"/>
+      <c r="F48" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H48" s="55"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="22"/>
+      <c r="I48" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>87</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D49" s="18"/>
       <c r="E49" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>23</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G49" s="18"/>
       <c r="H49" s="55"/>
       <c r="I49" s="18"/>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="E50" s="18">
-        <v>5</v>
-      </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="H50" s="55"/>
       <c r="I50" s="18"/>
       <c r="J50" s="22"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="46">
-        <v>37</v>
-      </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47">
-        <v>1</v>
-      </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="59"/>
-      <c r="I51" s="47"/>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="45">
+        <v>36</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="18">
+        <v>5</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="22"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="46">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="47"/>
       <c r="C52" s="47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D52" s="47"/>
       <c r="E52" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" s="48"/>
       <c r="G52" s="47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H52" s="59"/>
       <c r="I52" s="47"/>
@@ -3162,33 +3213,31 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="46">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="47"/>
       <c r="C53" s="47" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D53" s="47"/>
       <c r="E53" s="47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="47" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H53" s="59"/>
       <c r="I53" s="47"/>
-      <c r="J53" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="J53" s="22"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="46">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="47"/>
       <c r="C54" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="47"/>
       <c r="E54" s="47">
@@ -3201,20 +3250,30 @@
       <c r="H54" s="59"/>
       <c r="I54" s="47"/>
       <c r="J54" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
+      <c r="A55" s="46">
+        <v>40</v>
+      </c>
       <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
+      <c r="C55" s="47" t="s">
+        <v>62</v>
+      </c>
       <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
+      <c r="E55" s="47">
+        <v>7</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="47" t="s">
+        <v>42</v>
+      </c>
       <c r="H55" s="59"/>
       <c r="I55" s="47"/>
-      <c r="J55" s="22"/>
+      <c r="J55" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="49"/>
@@ -3264,26 +3323,38 @@
       <c r="I59" s="47"/>
       <c r="J59" s="22"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F63" s="50"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="49"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="22"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F64" s="50"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J59">
-    <sortCondition ref="B11:B59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J60">
+    <sortCondition ref="B12:B60"/>
   </sortState>
   <mergeCells count="10">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:T44">
+  <conditionalFormatting sqref="A5:T45">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$H5&lt;$E5</formula>
     </cfRule>
@@ -3295,26 +3366,25 @@
     <hyperlink ref="F5" r:id="rId1" tooltip="T491A104K035AT; Condensateur: tantal; 0,1uF; 35VDC; SMD; Boîtier: A; 1206; ±10%" display="https://www.tme.eu/fr/details/t491a104k035at/condensateurs-au-tantale-smd/kemet/" xr:uid="{835F4600-2F36-46A6-91DE-6466BA46D1C6}"/>
     <hyperlink ref="F6" r:id="rId2" tooltip="C1206C105M4RACTU; Condensateur: céramique; MLCC; 1uF; 16VDC; X7R; ±20%; SMD; 1206" display="https://www.tme.eu/be/fr/details/c1206c105m4ractu/condensateurs-mlcc-smd-1206/kemet/" xr:uid="{CB063ED4-9A8C-438E-A8B8-A4B60DCCB51D}"/>
     <hyperlink ref="F7" r:id="rId3" tooltip="C1206C103J1RACTU; Condensateur: céramique; MLCC; 10nF; 100VDC; X7R; ±5%; SMD; 1206" display="https://www.tme.eu/be/fr/details/c1206c103j1ractu/condensateurs-mlcc-smd-1206/kemet/" xr:uid="{5F2390B3-0D81-409B-A42B-E9EA90065D1C}"/>
-    <hyperlink ref="F14" r:id="rId4" display="https://www.mouser.be/ProductDetail/KOA-Speer/RN73H2BTTD1001B25/?qs=Zlm1YJ46fsD3WNngRPTY1g%3D%3D" xr:uid="{0660DEBA-A9C4-4F98-98EF-A884AAFFD700}"/>
-    <hyperlink ref="F17" r:id="rId5" tooltip="AR06BTCV2001; Résistance: thin film; de précision; SMD; 1206; 2kΩ; 0,25W; ±0,1%" display="https://www.tme.eu/fr/details/ar1206-2k-0.1%25/resistances-de-precision-smd-1206/viking/ar06btcv2001/" xr:uid="{4E3DED89-4485-49C5-92A8-62C8A029ECA6}"/>
-    <hyperlink ref="F27" r:id="rId6" display="https://www.mouser.be/ProductDetail/Wurth-Elektronik/824022/?qs=Wn16VcyqZWoE6sTDUBlUiQ%3D%3D" xr:uid="{A71537F9-07AE-4F90-B739-6D16251D122A}"/>
-    <hyperlink ref="J9" r:id="rId7" display="https://befr.rs-online.com/web/p/voltage-references/5343037/?cm_mmc=BE-PLA-DS3A-_-google-_-PLA_BE_FR_Semiconductors_Whoop-_-(BE:Whoop!)+Voltage+References-_-5343037&amp;matchtype=&amp;aud-827186183686:pla-533962920232&amp;gclid=Cj0KCQiAst2BBhDJARIsAGo2ldVAY1WrPDjC8paFXGNZEOmkZQx8TcAHaZFOpla8vljzKIUvydHTWN0aArtkEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B66D013-D586-47EE-8D64-26CA00366A1F}"/>
-    <hyperlink ref="F39" r:id="rId8" tooltip="MC 1,5/ 4-ST-3,5 1840382; Barrette de pression amovible; 3,5mm; pistes: 4; droit; femelle" display="https://www.tme.eu/fr/details/mc1.5_4-st-3.5/borniers-de-serrage-deconnectables/phoenix-contact/mc-1-5-4-st-3-5-1840382/" xr:uid="{CA613C76-B9F0-4233-86C4-BD3E113E3D81}"/>
-    <hyperlink ref="F40" r:id="rId9" tooltip="DS1009-18AT1NX; Support: DIP; PIN: 18; 7,62mm; THT; Trame: 2,54mm" display="https://www.tme.eu/fr/details/icvt-18p/supports-dip-standard/connfly/ds1009-18at1nx/" xr:uid="{95D93535-A405-4289-A585-A00FC5365CAE}"/>
-    <hyperlink ref="F46" r:id="rId10" tooltip="VAQ-9-10-12-R; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-r/commutateurs-standards/highly/" xr:uid="{27067EA1-971F-4DC2-992B-9343F6A6CBB2}"/>
-    <hyperlink ref="F45" r:id="rId11" tooltip="VAQ-9-10-12-G; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-g/commutateurs-standards/highly/" xr:uid="{3D237C8C-FF33-4FBD-9F47-23A5FBAF27E4}"/>
-    <hyperlink ref="F47" r:id="rId12" tooltip="VAQ-9-10-12-Y; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-y/commutateurs-standards/highly/" xr:uid="{CE4B8ED0-965D-4C0E-A322-C5B8602B9323}"/>
-    <hyperlink ref="F35" r:id="rId13" tooltip="SMAZ5V1-13-F; Diode: Zener; 1W; 5,1V; 196mA; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/smaz5v1-13-f/diodes-zener-smd/diodes-incorporated/" xr:uid="{CA0324DD-67DE-4ECD-AB47-263AE86E8EBD}"/>
-    <hyperlink ref="F19" r:id="rId14" display="https://befr.rs-online.com/web/p/surface-mount-fixed-resistors/7218093/" xr:uid="{A69B2073-EAD3-4F64-994A-E2F02F998664}"/>
-    <hyperlink ref="F37" r:id="rId15" tooltip="1SMA5913BT3G; Diode: Zener; 1,5W; 3,3V; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/1sma5913bt3g/diodes-zener-smd/on-semiconductor/" xr:uid="{971C21CD-F9A6-4515-A379-2101CBC403C6}"/>
-    <hyperlink ref="F24" r:id="rId16" tooltip="FDV304P; Transistor: P-MOSFET; unipolaire; -25V; -0,46A; 0,35W; SOT23" display="https://www.tme.eu/fr/details/fdv304p/transistors-avec-canal-p-smd/on-semiconductor/" xr:uid="{03FB83DA-FD42-4597-988E-925E469D5187}"/>
-    <hyperlink ref="F13" r:id="rId17" tooltip="TC0625B1000T1E; Résistance: thin film; de précision; SMD; 1206; 100Ω; 125mW; ±0,1%" display="https://www.tme.eu/fr/details/tc0625b1000t1e/resistances-de-precision-smd-1206/royal-ohm/" xr:uid="{CF3335F1-6ACB-48EC-B5C8-DEC07B13CCD6}"/>
-    <hyperlink ref="J14" r:id="rId18" xr:uid="{C837ABE1-F5AE-415B-B082-FBED6CAECA1D}"/>
-    <hyperlink ref="F20" r:id="rId19" tooltip="AR06BTCV1002; Résistance: thin film; de précision; SMD; 1206; 10kΩ; 0,25W; ±0,1%" display="https://www.tme.eu/fr/details/ar1206-10k-0.1%25/resistances-de-precision-smd-1206/viking/ar06btcv1002/" xr:uid="{B07F7E88-426D-4E0E-8A9F-91BEDFD334CF}"/>
-    <hyperlink ref="F42" r:id="rId20" tooltip="DS1023-1*14S21; Socle; broches; femelle; PIN: 14; droit; 2,54mm; THT; 1x14; doré; 3A" display="https://www.tme.eu/be/fr/details/zl262-14sg/barres-et-socles-a-broches/connfly/ds1023-1-14s21/" xr:uid="{70C4D670-60F6-4666-BABA-E926B65677CA}"/>
-    <hyperlink ref="F33" r:id="rId21" tooltip="15EDGVC-3.5-04P-14-00A(H); Barrette de pression amovible; 3,5mm; pistes: 4; droit; socle" display="https://www.tme.eu/be/fr/details/15edgvc-3.5-04p/borniers-de-serrage-deconnectables/degson-electronics/15edgvc-3-5-04p-14-00a-h/" xr:uid="{D8491FE7-E59C-4796-BDC8-A9F44C1EF11E}"/>
+    <hyperlink ref="F15" r:id="rId4" display="https://www.mouser.be/ProductDetail/KOA-Speer/RN73H2BTTD1001B25/?qs=Zlm1YJ46fsD3WNngRPTY1g%3D%3D" xr:uid="{0660DEBA-A9C4-4F98-98EF-A884AAFFD700}"/>
+    <hyperlink ref="F18" r:id="rId5" tooltip="AR06BTCV2001; Résistance: thin film; de précision; SMD; 1206; 2kΩ; 0,25W; ±0,1%" display="https://www.tme.eu/fr/details/ar1206-2k-0.1%25/resistances-de-precision-smd-1206/viking/ar06btcv2001/" xr:uid="{4E3DED89-4485-49C5-92A8-62C8A029ECA6}"/>
+    <hyperlink ref="J10" r:id="rId6" display="https://befr.rs-online.com/web/p/voltage-references/5343037/?cm_mmc=BE-PLA-DS3A-_-google-_-PLA_BE_FR_Semiconductors_Whoop-_-(BE:Whoop!)+Voltage+References-_-5343037&amp;matchtype=&amp;aud-827186183686:pla-533962920232&amp;gclid=Cj0KCQiAst2BBhDJARIsAGo2ldVAY1WrPDjC8paFXGNZEOmkZQx8TcAHaZFOpla8vljzKIUvydHTWN0aArtkEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B66D013-D586-47EE-8D64-26CA00366A1F}"/>
+    <hyperlink ref="F40" r:id="rId7" tooltip="MC 1,5/ 4-ST-3,5 1840382; Barrette de pression amovible; 3,5mm; pistes: 4; droit; femelle" display="https://www.tme.eu/fr/details/mc1.5_4-st-3.5/borniers-de-serrage-deconnectables/phoenix-contact/mc-1-5-4-st-3-5-1840382/" xr:uid="{CA613C76-B9F0-4233-86C4-BD3E113E3D81}"/>
+    <hyperlink ref="F41" r:id="rId8" tooltip="DS1009-18AT1NX; Support: DIP; PIN: 18; 7,62mm; THT; Trame: 2,54mm" display="https://www.tme.eu/fr/details/icvt-18p/supports-dip-standard/connfly/ds1009-18at1nx/" xr:uid="{95D93535-A405-4289-A585-A00FC5365CAE}"/>
+    <hyperlink ref="F47" r:id="rId9" tooltip="VAQ-9-10-12-R; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-r/commutateurs-standards/highly/" xr:uid="{27067EA1-971F-4DC2-992B-9343F6A6CBB2}"/>
+    <hyperlink ref="F46" r:id="rId10" tooltip="VAQ-9-10-12-G; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-g/commutateurs-standards/highly/" xr:uid="{3D237C8C-FF33-4FBD-9F47-23A5FBAF27E4}"/>
+    <hyperlink ref="F48" r:id="rId11" tooltip="VAQ-9-10-12-Y; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-y/commutateurs-standards/highly/" xr:uid="{CE4B8ED0-965D-4C0E-A322-C5B8602B9323}"/>
+    <hyperlink ref="F36" r:id="rId12" tooltip="SMAZ5V1-13-F; Diode: Zener; 1W; 5,1V; 196mA; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/smaz5v1-13-f/diodes-zener-smd/diodes-incorporated/" xr:uid="{CA0324DD-67DE-4ECD-AB47-263AE86E8EBD}"/>
+    <hyperlink ref="F20" r:id="rId13" display="https://befr.rs-online.com/web/p/surface-mount-fixed-resistors/7218093/" xr:uid="{A69B2073-EAD3-4F64-994A-E2F02F998664}"/>
+    <hyperlink ref="F38" r:id="rId14" tooltip="1SMA5913BT3G; Diode: Zener; 1,5W; 3,3V; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/1sma5913bt3g/diodes-zener-smd/on-semiconductor/" xr:uid="{971C21CD-F9A6-4515-A379-2101CBC403C6}"/>
+    <hyperlink ref="F25" r:id="rId15" tooltip="FDV304P; Transistor: P-MOSFET; unipolaire; -25V; -0,46A; 0,35W; SOT23" display="https://www.tme.eu/fr/details/fdv304p/transistors-avec-canal-p-smd/on-semiconductor/" xr:uid="{03FB83DA-FD42-4597-988E-925E469D5187}"/>
+    <hyperlink ref="F14" r:id="rId16" tooltip="TC0625B1000T1E; Résistance: thin film; de précision; SMD; 1206; 100Ω; 125mW; ±0,1%" display="https://www.tme.eu/fr/details/tc0625b1000t1e/resistances-de-precision-smd-1206/royal-ohm/" xr:uid="{CF3335F1-6ACB-48EC-B5C8-DEC07B13CCD6}"/>
+    <hyperlink ref="J15" r:id="rId17" xr:uid="{C837ABE1-F5AE-415B-B082-FBED6CAECA1D}"/>
+    <hyperlink ref="F21" r:id="rId18" tooltip="AR06BTCV1002; Résistance: thin film; de précision; SMD; 1206; 10kΩ; 0,25W; ±0,1%" display="https://www.tme.eu/fr/details/ar1206-10k-0.1%25/resistances-de-precision-smd-1206/viking/ar06btcv1002/" xr:uid="{B07F7E88-426D-4E0E-8A9F-91BEDFD334CF}"/>
+    <hyperlink ref="F43" r:id="rId19" tooltip="DS1023-1*14S21; Socle; broches; femelle; PIN: 14; droit; 2,54mm; THT; 1x14; doré; 3A" display="https://www.tme.eu/be/fr/details/zl262-14sg/barres-et-socles-a-broches/connfly/ds1023-1-14s21/" xr:uid="{70C4D670-60F6-4666-BABA-E926B65677CA}"/>
+    <hyperlink ref="F34" r:id="rId20" tooltip="15EDGVC-3.5-04P-14-00A(H); Barrette de pression amovible; 3,5mm; pistes: 4; droit; socle" display="https://www.tme.eu/be/fr/details/15edgvc-3.5-04p/borniers-de-serrage-deconnectables/degson-electronics/15edgvc-3-5-04p-14-00a-h/" xr:uid="{D8491FE7-E59C-4796-BDC8-A9F44C1EF11E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
--- a/BOM_nextPCB(serviA2).xlsx
+++ b/BOM_nextPCB(serviA2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1205" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A29CB97-55B2-474C-B990-FC3D8A2538DC}"/>
+  <xr:revisionPtr revIDLastSave="1210" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C4D4780A-8B29-4783-AB3B-EE0FAB4BE2C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2550" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V4.0" sheetId="3" r:id="rId1"/>
@@ -602,12 +602,6 @@
     <t>https://www.mouser.be/ProductDetail/Phoenix-Contact/1725656?qs=%2Fha2pyFaduisMLVvmyA1Rh0mEWT0DKYxlzilMJiDQbY%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.be/ProductDetail/Yageo/RT1206BRD0733RL?qs=sGAEpiMZZMvdGkrng054t%252BSYh%252B1gqt95ZImaTMtcXyM%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1206BRD0733RL </t>
-  </si>
-  <si>
     <t>Pullup optocoupleur</t>
   </si>
   <si>
@@ -639,6 +633,12 @@
   </si>
   <si>
     <t>https://www.mouser.be/ProductDetail/Diodes-Incorporated/SDM10M45SD-7-F?qs=%2Fha2pyFadujjRkPixxzQ28uXDzT00Y%252Bd3v2piDiuOZ%252BOgoOZIcgrJQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Panasonic/ERJ-P08D33R0V?qs=sGAEpiMZZMvdGkrng054t5hHekyimr99UaPO9LKWRes%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERJ-P08D33R0V </t>
   </si>
 </sst>
 </file>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C6BB1E-CDC9-41D8-A56D-50F2079A148E}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,22 +1735,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="E9" s="8">
         <v>4</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H9" s="53">
         <f>[1]Feuil1!$F$24</f>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>11</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
@@ -2303,7 +2303,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>11</v>
@@ -2316,7 +2316,7 @@
         <v>176</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -2444,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>173</v>
@@ -2797,7 +2797,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>102</v>

--- a/BOM_nextPCB(serviA2).xlsx
+++ b/BOM_nextPCB(serviA2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1210" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C4D4780A-8B29-4783-AB3B-EE0FAB4BE2C3}"/>
+  <xr:revisionPtr revIDLastSave="1226" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{464EF9F3-FFD0-4022-BBC5-D89AF3DBEDE5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2550" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V4.0" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
   <si>
     <t>Item</t>
   </si>
@@ -639,6 +639,30 @@
   </si>
   <si>
     <t xml:space="preserve">ERJ-P08D33R0V </t>
+  </si>
+  <si>
+    <t>Bouton poussoir à Led rouge 12V</t>
+  </si>
+  <si>
+    <t>Bouton poussoir à Led jaune 12V</t>
+  </si>
+  <si>
+    <t>rouge, off - (on)</t>
+  </si>
+  <si>
+    <t>vert, off - (on)</t>
+  </si>
+  <si>
+    <t>jaune, off - (on)</t>
+  </si>
+  <si>
+    <t>LP10A1AY</t>
+  </si>
+  <si>
+    <t>LP10A1AR</t>
+  </si>
+  <si>
+    <t>LP10A1AG</t>
   </si>
 </sst>
 </file>
@@ -816,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1008,7 +1032,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,6 +1076,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1060,13 +1087,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1149,7 +1211,7 @@
         </row>
         <row r="12">
           <cell r="F12">
-            <v>0</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="13">
@@ -1159,7 +1221,7 @@
         </row>
         <row r="15">
           <cell r="F15">
-            <v>0</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="16">
@@ -1169,7 +1231,7 @@
         </row>
         <row r="17">
           <cell r="F17">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="19">
@@ -1189,7 +1251,7 @@
         </row>
         <row r="24">
           <cell r="F24">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="25">
@@ -1214,7 +1276,7 @@
         </row>
         <row r="32">
           <cell r="F32">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="33">
@@ -1234,7 +1296,7 @@
         </row>
         <row r="38">
           <cell r="F38">
-            <v>0</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="39">
@@ -1244,12 +1306,27 @@
         </row>
         <row r="40">
           <cell r="F40">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="41">
           <cell r="F41">
-            <v>0</v>
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="F42">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="F43">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="F44">
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -1523,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C6BB1E-CDC9-41D8-A56D-50F2079A148E}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1613,7 @@
     <col min="5" max="5" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="51" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="58" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1571,7 +1648,7 @@
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="51" t="s">
         <v>156</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -1613,7 +1690,7 @@
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="53" t="str">
+      <c r="H5" s="52" t="str">
         <f>[1]Feuil1!$F$2</f>
         <v>&gt;20</v>
       </c>
@@ -1654,7 +1731,7 @@
       <c r="G6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="54" t="str">
+      <c r="H6" s="53" t="str">
         <f>[1]Feuil1!$F$3</f>
         <v>&gt;20</v>
       </c>
@@ -1695,7 +1772,7 @@
       <c r="G7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="55" t="str">
+      <c r="H7" s="54" t="str">
         <f>[1]Feuil1!$F$4</f>
         <v>&gt;20</v>
       </c>
@@ -1714,7 +1791,7 @@
         <v>151</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="53"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="25"/>
       <c r="J8" s="10" t="s">
         <v>152</v>
@@ -1731,7 +1808,7 @@
       <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63">
+      <c r="A9" s="62">
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1752,9 +1829,9 @@
       <c r="G9" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="52">
         <f>[1]Feuil1!$F$24</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="10" t="s">
@@ -1793,7 +1870,7 @@
       <c r="G10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="53">
         <f>[1]Feuil1!$F$28</f>
         <v>1</v>
       </c>
@@ -1836,9 +1913,9 @@
       <c r="G11" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="53">
         <f>[1]Feuil1!$F$38</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>31</v>
@@ -1879,7 +1956,7 @@
       <c r="G12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="53">
         <f>[1]Feuil1!$F$5</f>
         <v>4</v>
       </c>
@@ -1918,7 +1995,7 @@
       <c r="G13" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="53">
         <f>[1]Feuil1!$F$36</f>
         <v>18</v>
       </c>
@@ -1959,7 +2036,7 @@
       <c r="G14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="54" t="str">
+      <c r="H14" s="53" t="str">
         <f>[1]Feuil1!$F$6</f>
         <v>&gt;20</v>
       </c>
@@ -2002,7 +2079,7 @@
       <c r="G15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="55">
         <f>[1]Feuil1!$F$11</f>
         <v>0</v>
       </c>
@@ -2043,9 +2120,9 @@
       <c r="G16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="56">
         <f>[1]Feuil1!$F$12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>188</v>
@@ -2072,7 +2149,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="58"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="25"/>
       <c r="J17" s="40"/>
       <c r="K17" s="27"/>
@@ -2108,7 +2185,7 @@
       <c r="G18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="55" t="str">
+      <c r="H18" s="54" t="str">
         <f>[1]Feuil1!$F$8</f>
         <v>&gt;20</v>
       </c>
@@ -2129,7 +2206,7 @@
         <v>149</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="53"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="25"/>
       <c r="J19" s="10" t="s">
         <v>150</v>
@@ -2167,7 +2244,7 @@
       <c r="G20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="54" t="str">
+      <c r="H20" s="53" t="str">
         <f>[1]Feuil1!$F$9</f>
         <v>&gt;20</v>
       </c>
@@ -2210,7 +2287,7 @@
       <c r="G21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="55" t="str">
+      <c r="H21" s="54" t="str">
         <f>[1]Feuil1!$F$10</f>
         <v>&gt;20</v>
       </c>
@@ -2229,7 +2306,7 @@
         <v>147</v>
       </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="53"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="25"/>
       <c r="J22" s="10" t="s">
         <v>148</v>
@@ -2267,7 +2344,7 @@
       <c r="G23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="53">
         <f>[1]Feuil1!$F$13</f>
         <v>9</v>
       </c>
@@ -2308,11 +2385,11 @@
       <c r="G24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="52">
         <f>[1]Feuil1!$F$15</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="59" t="s">
         <v>176</v>
       </c>
       <c r="J24" s="10" t="s">
@@ -2349,7 +2426,7 @@
       <c r="G25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="54">
         <f>[1]Feuil1!$F$16</f>
         <v>23</v>
       </c>
@@ -2370,7 +2447,7 @@
         <v>119</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="53"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="25"/>
       <c r="J26" s="10" t="s">
         <v>146</v>
@@ -2406,11 +2483,11 @@
       <c r="G27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="53">
         <f>[1]Feuil1!$F$33</f>
         <v>6</v>
       </c>
-      <c r="I27" s="61" t="s">
+      <c r="I27" s="60" t="s">
         <v>76</v>
       </c>
       <c r="J27" s="16" t="s">
@@ -2449,11 +2526,11 @@
       <c r="G28" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="53">
         <f>[1]Feuil1!$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="60" t="s">
         <v>174</v>
       </c>
       <c r="J28" s="16" t="s">
@@ -2490,11 +2567,11 @@
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="53">
         <f>[1]Feuil1!$F$39</f>
         <v>1</v>
       </c>
-      <c r="I29" s="61"/>
+      <c r="I29" s="60"/>
       <c r="J29" s="16"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
@@ -2527,11 +2604,11 @@
       <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="53">
         <f>[1]Feuil1!$F$40</f>
-        <v>1</v>
-      </c>
-      <c r="I30" s="61"/>
+        <v>2</v>
+      </c>
+      <c r="I30" s="60"/>
       <c r="J30" s="31" t="s">
         <v>37</v>
       </c>
@@ -2568,11 +2645,11 @@
       <c r="G31" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="53">
         <f>[1]Feuil1!$F$41</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="61"/>
+        <v>4</v>
+      </c>
+      <c r="I31" s="60"/>
       <c r="J31" s="31" t="s">
         <v>179</v>
       </c>
@@ -2609,11 +2686,11 @@
       <c r="G32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="53">
         <f>[1]Feuil1!$F$37</f>
         <v>6</v>
       </c>
-      <c r="I32" s="61" t="s">
+      <c r="I32" s="60" t="s">
         <v>78</v>
       </c>
       <c r="J32" s="16" t="s">
@@ -2652,7 +2729,7 @@
       <c r="G33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="54">
         <v>18</v>
       </c>
       <c r="I33" s="21" t="s">
@@ -2674,7 +2751,7 @@
         <v>141</v>
       </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="53"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="25"/>
       <c r="J34" s="10" t="s">
         <v>140</v>
@@ -2694,7 +2771,7 @@
       <c r="A35" s="45">
         <v>24</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="61" t="s">
         <v>184</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -2712,9 +2789,9 @@
       <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="53">
         <f>[1]Feuil1!$F$17</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35" s="31" t="s">
         <v>186</v>
@@ -2755,7 +2832,7 @@
       <c r="G36" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="55">
+      <c r="H36" s="54">
         <f>[1]Feuil1!$F$30</f>
         <v>6</v>
       </c>
@@ -2776,7 +2853,7 @@
         <v>104</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="25"/>
       <c r="J37" s="10" t="s">
         <v>137</v>
@@ -2814,7 +2891,7 @@
       <c r="G38" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="54">
         <f>[1]Feuil1!$F$20</f>
         <v>17</v>
       </c>
@@ -2835,7 +2912,7 @@
         <v>117</v>
       </c>
       <c r="G39" s="8"/>
-      <c r="H39" s="53"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="25"/>
       <c r="J39" s="10" t="s">
         <v>136</v>
@@ -2871,7 +2948,7 @@
       <c r="G40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="54">
+      <c r="H40" s="53">
         <f>[1]Feuil1!$F$19</f>
         <v>0</v>
       </c>
@@ -2912,7 +2989,7 @@
       <c r="G41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="55">
+      <c r="H41" s="54">
         <f>[1]Feuil1!$F$21</f>
         <v>5</v>
       </c>
@@ -2933,7 +3010,7 @@
         <v>142</v>
       </c>
       <c r="G42" s="8"/>
-      <c r="H42" s="53"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="25"/>
       <c r="J42" s="10" t="s">
         <v>143</v>
@@ -2969,7 +3046,7 @@
       <c r="G43" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="55">
+      <c r="H43" s="54">
         <f>[1]Feuil1!$F$25</f>
         <v>6</v>
       </c>
@@ -2990,7 +3067,7 @@
         <v>144</v>
       </c>
       <c r="G44" s="8"/>
-      <c r="H44" s="53"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="25"/>
       <c r="J44" s="10" t="s">
         <v>145</v>
@@ -3024,7 +3101,7 @@
       <c r="G45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="54">
+      <c r="H45" s="53">
         <f>[1]Feuil1!$F$26</f>
         <v>3</v>
       </c>
@@ -3043,109 +3120,144 @@
       <c r="S45" s="17"/>
       <c r="T45" s="17"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45">
+    <row r="46" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
         <v>31</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="18">
+      <c r="D46" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="67">
         <v>1</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="18" t="s">
+      <c r="F46" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="55"/>
-      <c r="I46" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="45">
+      <c r="H46" s="68">
+        <f>[1]Feuil1!$F$42</f>
+        <v>2</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+    </row>
+    <row r="47" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
         <v>32</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="18">
+      <c r="D47" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="67">
         <v>1</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47" s="18" t="s">
+      <c r="F47" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="55"/>
-      <c r="I47" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="45">
+      <c r="H47" s="68">
+        <f>[1]Feuil1!$F$43</f>
+        <v>2</v>
+      </c>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+    </row>
+    <row r="48" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
         <v>33</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" s="18">
+      <c r="D48" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" s="67">
         <v>1</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="18" t="s">
+      <c r="F48" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="55"/>
-      <c r="I48" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="45">
+      <c r="H48" s="68">
+        <f>[1]Feuil1!$F$44</f>
+        <v>2</v>
+      </c>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="63">
         <v>34</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="E49" s="18">
         <v>1</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="22"/>
+      <c r="F49" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="54"/>
+      <c r="I49" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
@@ -3153,105 +3265,119 @@
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E50" s="18">
-        <v>4</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="55"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="22"/>
-    </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H50" s="54"/>
+      <c r="I50" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>36</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="E51" s="18">
-        <v>5</v>
-      </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="54"/>
+      <c r="I51" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="46">
         <v>37</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18">
         <v>1</v>
       </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="59"/>
-      <c r="I52" s="47"/>
+      <c r="F52" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="22"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="46">
         <v>38</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47">
-        <v>3</v>
-      </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="59"/>
-      <c r="I53" s="47"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="18">
+        <v>4</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="54"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="22"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="46">
         <v>39</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47">
-        <v>7</v>
-      </c>
-      <c r="F54" s="48"/>
-      <c r="G54" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" s="59"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="18">
+        <v>5</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="22"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="46">
@@ -3259,67 +3385,90 @@
       </c>
       <c r="B55" s="47"/>
       <c r="C55" s="47" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D55" s="47"/>
       <c r="E55" s="47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H55" s="59"/>
+        <v>48</v>
+      </c>
       <c r="I55" s="47"/>
-      <c r="J55" s="22" t="s">
-        <v>100</v>
-      </c>
+      <c r="J55" s="22"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+      <c r="A56" s="46">
+        <v>41</v>
+      </c>
       <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="C56" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="59"/>
+      <c r="E56" s="47">
+        <v>3</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="47" t="s">
+        <v>51</v>
+      </c>
       <c r="I56" s="47"/>
       <c r="J56" s="22"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
+      <c r="A57" s="46">
+        <v>42</v>
+      </c>
       <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
+      <c r="C57" s="47" t="s">
+        <v>61</v>
+      </c>
       <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="59"/>
+      <c r="E57" s="47">
+        <v>7</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="47" t="s">
+        <v>42</v>
+      </c>
       <c r="I57" s="47"/>
-      <c r="J57" s="22"/>
+      <c r="J57" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+      <c r="A58" s="46">
+        <v>43</v>
+      </c>
       <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
+      <c r="C58" s="47" t="s">
+        <v>62</v>
+      </c>
       <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="59"/>
+      <c r="E58" s="47">
+        <v>7</v>
+      </c>
+      <c r="F58" s="48"/>
+      <c r="G58" s="47" t="s">
+        <v>42</v>
+      </c>
       <c r="I58" s="47"/>
-      <c r="J58" s="22"/>
+      <c r="J58" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
+      <c r="A59" s="46">
+        <v>44</v>
+      </c>
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
       <c r="E59" s="47"/>
       <c r="F59" s="47"/>
       <c r="G59" s="47"/>
-      <c r="H59" s="59"/>
       <c r="I59" s="47"/>
       <c r="J59" s="22"/>
     </row>
@@ -3331,7 +3480,6 @@
       <c r="E60" s="47"/>
       <c r="F60" s="47"/>
       <c r="G60" s="47"/>
-      <c r="H60" s="59"/>
       <c r="I60" s="47"/>
       <c r="J60" s="22"/>
     </row>
@@ -3354,11 +3502,11 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A16:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:T45">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A5:T48">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$H5&lt;$E5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$H5&gt;=$E5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3371,9 +3519,9 @@
     <hyperlink ref="J10" r:id="rId6" display="https://befr.rs-online.com/web/p/voltage-references/5343037/?cm_mmc=BE-PLA-DS3A-_-google-_-PLA_BE_FR_Semiconductors_Whoop-_-(BE:Whoop!)+Voltage+References-_-5343037&amp;matchtype=&amp;aud-827186183686:pla-533962920232&amp;gclid=Cj0KCQiAst2BBhDJARIsAGo2ldVAY1WrPDjC8paFXGNZEOmkZQx8TcAHaZFOpla8vljzKIUvydHTWN0aArtkEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B66D013-D586-47EE-8D64-26CA00366A1F}"/>
     <hyperlink ref="F40" r:id="rId7" tooltip="MC 1,5/ 4-ST-3,5 1840382; Barrette de pression amovible; 3,5mm; pistes: 4; droit; femelle" display="https://www.tme.eu/fr/details/mc1.5_4-st-3.5/borniers-de-serrage-deconnectables/phoenix-contact/mc-1-5-4-st-3-5-1840382/" xr:uid="{CA613C76-B9F0-4233-86C4-BD3E113E3D81}"/>
     <hyperlink ref="F41" r:id="rId8" tooltip="DS1009-18AT1NX; Support: DIP; PIN: 18; 7,62mm; THT; Trame: 2,54mm" display="https://www.tme.eu/fr/details/icvt-18p/supports-dip-standard/connfly/ds1009-18at1nx/" xr:uid="{95D93535-A405-4289-A585-A00FC5365CAE}"/>
-    <hyperlink ref="F47" r:id="rId9" tooltip="VAQ-9-10-12-R; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-r/commutateurs-standards/highly/" xr:uid="{27067EA1-971F-4DC2-992B-9343F6A6CBB2}"/>
-    <hyperlink ref="F46" r:id="rId10" tooltip="VAQ-9-10-12-G; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-g/commutateurs-standards/highly/" xr:uid="{3D237C8C-FF33-4FBD-9F47-23A5FBAF27E4}"/>
-    <hyperlink ref="F48" r:id="rId11" tooltip="VAQ-9-10-12-Y; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-y/commutateurs-standards/highly/" xr:uid="{CE4B8ED0-965D-4C0E-A322-C5B8602B9323}"/>
+    <hyperlink ref="F50" r:id="rId9" tooltip="VAQ-9-10-12-R; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-r/commutateurs-standards/highly/" xr:uid="{27067EA1-971F-4DC2-992B-9343F6A6CBB2}"/>
+    <hyperlink ref="F49" r:id="rId10" tooltip="VAQ-9-10-12-G; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-g/commutateurs-standards/highly/" xr:uid="{3D237C8C-FF33-4FBD-9F47-23A5FBAF27E4}"/>
+    <hyperlink ref="F51" r:id="rId11" tooltip="VAQ-9-10-12-Y; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-y/commutateurs-standards/highly/" xr:uid="{CE4B8ED0-965D-4C0E-A322-C5B8602B9323}"/>
     <hyperlink ref="F36" r:id="rId12" tooltip="SMAZ5V1-13-F; Diode: Zener; 1W; 5,1V; 196mA; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/smaz5v1-13-f/diodes-zener-smd/diodes-incorporated/" xr:uid="{CA0324DD-67DE-4ECD-AB47-263AE86E8EBD}"/>
     <hyperlink ref="F20" r:id="rId13" display="https://befr.rs-online.com/web/p/surface-mount-fixed-resistors/7218093/" xr:uid="{A69B2073-EAD3-4F64-994A-E2F02F998664}"/>
     <hyperlink ref="F38" r:id="rId14" tooltip="1SMA5913BT3G; Diode: Zener; 1,5W; 3,3V; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/1sma5913bt3g/diodes-zener-smd/on-semiconductor/" xr:uid="{971C21CD-F9A6-4515-A379-2101CBC403C6}"/>
